--- a/storage/app/iprs/4/iprs.xlsx
+++ b/storage/app/iprs/4/iprs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19858A5-6650-4687-A72C-12DA72BBF0B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580A01FA-313A-41F5-B3EF-2EA12BE98C5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,10 +564,10 @@
   <dimension ref="A1:BE119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7:AD24"/>
+      <selection pane="bottomRight" activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -671,8 +671,12 @@
       <c r="AD1" s="17">
         <v>40</v>
       </c>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
+      <c r="AE1" s="4">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>42</v>
+      </c>
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
@@ -790,8 +794,12 @@
       <c r="AD2" s="2">
         <v>0</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
+      <c r="AE2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>0</v>
+      </c>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="10"/>
@@ -909,8 +917,12 @@
       <c r="AD3" s="2">
         <v>0</v>
       </c>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
+      <c r="AE3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>0</v>
+      </c>
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
@@ -1028,8 +1040,12 @@
       <c r="AD4" s="2">
         <v>0</v>
       </c>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
+      <c r="AE4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>0</v>
+      </c>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
@@ -1147,8 +1163,12 @@
       <c r="AD5" s="2">
         <v>0</v>
       </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="AE5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>0</v>
+      </c>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
@@ -1266,8 +1286,12 @@
       <c r="AD6" s="2">
         <v>0</v>
       </c>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
+      <c r="AE6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0</v>
+      </c>
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
@@ -1385,8 +1409,12 @@
       <c r="AD7" s="2">
         <v>0</v>
       </c>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
+      <c r="AE7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>0</v>
+      </c>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
@@ -1504,8 +1532,12 @@
       <c r="AD8" s="2">
         <v>0</v>
       </c>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
+      <c r="AE8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0</v>
+      </c>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
       <c r="AI8" s="10"/>
@@ -1623,8 +1655,12 @@
       <c r="AD9" s="2">
         <v>0</v>
       </c>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
+      <c r="AE9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0</v>
+      </c>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
@@ -1742,8 +1778,12 @@
       <c r="AD10" s="2">
         <v>0</v>
       </c>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
+      <c r="AE10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>0</v>
+      </c>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
@@ -1861,8 +1901,12 @@
       <c r="AD11" s="2">
         <v>0</v>
       </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
+      <c r="AE11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>0</v>
+      </c>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
@@ -1980,8 +2024,12 @@
       <c r="AD12" s="2">
         <v>0</v>
       </c>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
+      <c r="AE12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>0</v>
+      </c>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
       <c r="AI12" s="10"/>
@@ -2099,8 +2147,12 @@
       <c r="AD13" s="2">
         <v>0</v>
       </c>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
+      <c r="AE13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>0</v>
+      </c>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
@@ -2218,8 +2270,12 @@
       <c r="AD14" s="2">
         <v>0</v>
       </c>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
+      <c r="AE14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>0</v>
+      </c>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AI14" s="10"/>
@@ -2337,8 +2393,12 @@
       <c r="AD15" s="2">
         <v>0</v>
       </c>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
+      <c r="AE15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>0</v>
+      </c>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
@@ -2456,8 +2516,12 @@
       <c r="AD16" s="2">
         <v>0</v>
       </c>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
+      <c r="AE16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>0</v>
+      </c>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
       <c r="AI16" s="10"/>
@@ -2575,8 +2639,12 @@
       <c r="AD17" s="2">
         <v>0</v>
       </c>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
+      <c r="AE17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>0</v>
+      </c>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
       <c r="AI17" s="10"/>
@@ -2694,8 +2762,12 @@
       <c r="AD18" s="2">
         <v>0</v>
       </c>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
+      <c r="AE18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>0</v>
+      </c>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
       <c r="AI18" s="10"/>
@@ -2813,8 +2885,12 @@
       <c r="AD19" s="2">
         <v>0</v>
       </c>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
+      <c r="AE19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>0</v>
+      </c>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
@@ -2932,8 +3008,12 @@
       <c r="AD20" s="2">
         <v>0</v>
       </c>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
+      <c r="AE20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="10">
+        <v>0</v>
+      </c>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
@@ -3051,8 +3131,12 @@
       <c r="AD21" s="2">
         <v>0</v>
       </c>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
+      <c r="AE21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>0</v>
+      </c>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
@@ -3170,8 +3254,12 @@
       <c r="AD22" s="2">
         <v>0</v>
       </c>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
+      <c r="AE22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="10">
+        <v>0</v>
+      </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
@@ -3289,8 +3377,12 @@
       <c r="AD23" s="2">
         <v>0</v>
       </c>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
+      <c r="AE23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="10">
+        <v>0</v>
+      </c>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
@@ -3408,8 +3500,12 @@
       <c r="AD24" s="2">
         <v>0</v>
       </c>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
+      <c r="AE24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>0</v>
+      </c>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
       <c r="AI24" s="10"/>
@@ -3527,8 +3623,12 @@
       <c r="AD25" s="2">
         <v>0</v>
       </c>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
+      <c r="AE25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>0</v>
+      </c>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
@@ -3646,8 +3746,12 @@
       <c r="AD26" s="2">
         <v>0</v>
       </c>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
+      <c r="AE26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>0</v>
+      </c>
       <c r="AG26" s="10"/>
       <c r="AH26" s="10"/>
       <c r="AI26" s="10"/>
@@ -3765,8 +3869,12 @@
       <c r="AD27" s="2">
         <v>0</v>
       </c>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
+      <c r="AE27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="10">
+        <v>0</v>
+      </c>
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
       <c r="AI27" s="10"/>
@@ -3884,8 +3992,12 @@
       <c r="AD28" s="2">
         <v>0</v>
       </c>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
+      <c r="AE28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="10">
+        <v>0</v>
+      </c>
       <c r="AG28" s="10"/>
       <c r="AH28" s="10"/>
       <c r="AI28" s="10"/>
@@ -4003,8 +4115,12 @@
       <c r="AD29" s="2">
         <v>0</v>
       </c>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
+      <c r="AE29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="10">
+        <v>0</v>
+      </c>
       <c r="AG29" s="10"/>
       <c r="AH29" s="10"/>
       <c r="AI29" s="10"/>
@@ -4122,8 +4238,12 @@
       <c r="AD30" s="2">
         <v>0</v>
       </c>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
+      <c r="AE30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="10">
+        <v>0</v>
+      </c>
       <c r="AG30" s="10"/>
       <c r="AH30" s="10"/>
       <c r="AI30" s="10"/>
@@ -4241,8 +4361,12 @@
       <c r="AD31" s="2">
         <v>0</v>
       </c>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
+      <c r="AE31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="10">
+        <v>0</v>
+      </c>
       <c r="AG31" s="10"/>
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
@@ -4360,8 +4484,12 @@
       <c r="AD32" s="7">
         <v>0</v>
       </c>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
+      <c r="AE32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="10">
+        <v>0</v>
+      </c>
       <c r="AG32" s="10"/>
       <c r="AH32" s="10"/>
       <c r="AI32" s="10"/>
@@ -4479,8 +4607,12 @@
       <c r="AD33" s="8">
         <v>0</v>
       </c>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
+      <c r="AE33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="10">
+        <v>0</v>
+      </c>
       <c r="AG33" s="10"/>
       <c r="AH33" s="10"/>
       <c r="AI33" s="10"/>
@@ -4598,8 +4730,12 @@
       <c r="AD34" s="8">
         <v>0</v>
       </c>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
+      <c r="AE34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="10">
+        <v>0</v>
+      </c>
       <c r="AG34" s="10"/>
       <c r="AH34" s="10"/>
       <c r="AI34" s="10"/>

--- a/storage/app/iprs/4/iprs.xlsx
+++ b/storage/app/iprs/4/iprs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580A01FA-313A-41F5-B3EF-2EA12BE98C5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CBEABC-2C85-4E15-86C4-C8EF09736D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>M4 - N001</t>
   </si>
@@ -128,12 +128,48 @@
   <si>
     <t>id</t>
   </si>
+  <si>
+    <t>M4 - N023</t>
+  </si>
+  <si>
+    <t>M4 - N035</t>
+  </si>
+  <si>
+    <t>M4 - N036</t>
+  </si>
+  <si>
+    <t>M4 - N037</t>
+  </si>
+  <si>
+    <t>M4 - N038</t>
+  </si>
+  <si>
+    <t>M4 - N039</t>
+  </si>
+  <si>
+    <t>M4 - N040</t>
+  </si>
+  <si>
+    <t>M4 - N041</t>
+  </si>
+  <si>
+    <t>M4 - N042</t>
+  </si>
+  <si>
+    <t>M4 - N043</t>
+  </si>
+  <si>
+    <t>M4 - N044</t>
+  </si>
+  <si>
+    <t>M4 - N045</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -171,6 +207,10 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Czcionka tekstu podstawowego"/>
     </font>
   </fonts>
   <fills count="8">
@@ -561,13 +601,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BE119"/>
+  <dimension ref="A1:BE120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V48" sqref="V48"/>
+      <selection pane="bottomRight" activeCell="AA44" sqref="AA44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3411,99 +3451,99 @@
     </row>
     <row r="24" spans="1:57" ht="24.75" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>4</v>
-      </c>
-      <c r="M24" s="2">
-        <v>4</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="5">
-        <v>20</v>
-      </c>
-      <c r="U24" s="2">
-        <v>4</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="10">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
         <v>0</v>
       </c>
       <c r="AG24" s="10"/>
@@ -3534,28 +3574,28 @@
     </row>
     <row r="25" spans="1:57" ht="24.75" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>100</v>
-      </c>
-      <c r="F25" s="6">
-        <v>348</v>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -3567,19 +3607,19 @@
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M25" s="2">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -3590,17 +3630,17 @@
       <c r="S25" s="2">
         <v>0</v>
       </c>
-      <c r="T25" s="2">
-        <v>222</v>
+      <c r="T25" s="5">
+        <v>20</v>
       </c>
       <c r="U25" s="2">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="V25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2">
         <v>0</v>
@@ -3657,52 +3697,52 @@
     </row>
     <row r="26" spans="1:57" ht="24.75" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F26" s="6">
+        <v>348</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
+        <v>19</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>36</v>
+      </c>
+      <c r="M26" s="2">
+        <v>72</v>
+      </c>
+      <c r="N26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>3</v>
-      </c>
-      <c r="M26" s="2">
-        <v>2</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0</v>
-      </c>
       <c r="O26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -3714,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="U26" s="2">
-        <v>1.5</v>
+        <v>72</v>
       </c>
       <c r="V26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
@@ -3778,30 +3818,30 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
     </row>
-    <row r="27" spans="1:57" ht="36.75" customHeight="1">
+    <row r="27" spans="1:57" ht="24.75" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="3">
-        <v>9</v>
+      <c r="H27" s="2">
+        <v>1</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
@@ -3813,19 +3853,19 @@
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>22</v>
-      </c>
-      <c r="M27" s="3">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -3837,16 +3877,16 @@
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="U27" s="2">
-        <v>40</v>
+        <v>1.5</v>
       </c>
       <c r="V27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -3901,12 +3941,12 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
     </row>
-    <row r="28" spans="1:57" ht="24.75" customHeight="1">
+    <row r="28" spans="1:57" ht="36.75" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3">
         <v>52</v>
@@ -3936,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M28" s="3">
         <v>62</v>
@@ -3948,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -3965,11 +4005,11 @@
       <c r="U28" s="2">
         <v>40</v>
       </c>
-      <c r="V28" s="3">
-        <v>4</v>
-      </c>
-      <c r="W28" s="3">
-        <v>12</v>
+      <c r="V28" s="2">
+        <v>1</v>
+      </c>
+      <c r="W28" s="2">
+        <v>2</v>
       </c>
       <c r="X28" s="2">
         <v>0</v>
@@ -4003,96 +4043,96 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="10"/>
       <c r="AK28" s="10"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="4"/>
-      <c r="AY28" s="4"/>
-      <c r="AZ28" s="4"/>
-      <c r="BA28" s="4"/>
-      <c r="BB28" s="4"/>
-      <c r="BC28" s="4"/>
-      <c r="BD28" s="4"/>
-      <c r="BE28" s="4"/>
-    </row>
-    <row r="29" spans="1:57" ht="12" customHeight="1">
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+    </row>
+    <row r="29" spans="1:57" ht="24.75" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>100</v>
+      </c>
+      <c r="F29" s="2">
+        <v>280</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>9</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>29</v>
+      </c>
+      <c r="M29" s="3">
+        <v>62</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>90</v>
+      </c>
+      <c r="U29" s="2">
+        <v>40</v>
+      </c>
+      <c r="V29" s="3">
         <v>4</v>
       </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>2</v>
-      </c>
-      <c r="M29" s="2">
-        <v>2</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0</v>
-      </c>
-      <c r="S29" s="2">
-        <v>0</v>
-      </c>
-      <c r="T29" s="5">
-        <v>16</v>
-      </c>
-      <c r="U29" s="2">
-        <v>4</v>
-      </c>
-      <c r="V29" s="2">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2">
-        <v>0</v>
+      <c r="W29" s="3">
+        <v>12</v>
       </c>
       <c r="X29" s="2">
         <v>0</v>
@@ -4126,51 +4166,51 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="10"/>
       <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="12" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>23</v>
-      </c>
-      <c r="C30" s="3">
-        <v>62</v>
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -4181,38 +4221,38 @@
       <c r="K30" s="2">
         <v>0</v>
       </c>
-      <c r="L30" s="5">
-        <v>24</v>
-      </c>
-      <c r="M30" s="3">
-        <v>62</v>
+      <c r="L30" s="2">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2</v>
       </c>
       <c r="N30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
+        <v>16</v>
+      </c>
+      <c r="U30" s="2">
         <v>4</v>
       </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-      <c r="S30" s="2">
-        <v>0</v>
-      </c>
-      <c r="T30" s="2">
-        <v>155</v>
-      </c>
-      <c r="U30" s="2">
-        <v>54</v>
-      </c>
       <c r="V30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2">
         <v>0</v>
@@ -4272,13 +4312,13 @@
     </row>
     <row r="31" spans="1:57" ht="12" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C31" s="3">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -4286,8 +4326,8 @@
       <c r="E31" s="2">
         <v>100</v>
       </c>
-      <c r="F31" s="3">
-        <v>475</v>
+      <c r="F31" s="2">
+        <v>370</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -4304,8 +4344,8 @@
       <c r="K31" s="2">
         <v>0</v>
       </c>
-      <c r="L31" s="2">
-        <v>22</v>
+      <c r="L31" s="5">
+        <v>24</v>
       </c>
       <c r="M31" s="3">
         <v>62</v>
@@ -4329,16 +4369,16 @@
         <v>0</v>
       </c>
       <c r="T31" s="2">
-        <v>96</v>
-      </c>
-      <c r="U31" s="3">
-        <v>37.5</v>
-      </c>
-      <c r="V31" s="3">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="U31" s="2">
+        <v>54</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1</v>
       </c>
       <c r="W31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2">
         <v>0</v>
@@ -4395,53 +4435,53 @@
     </row>
     <row r="32" spans="1:57" ht="12" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7">
-        <v>6</v>
-      </c>
-      <c r="C32" s="7">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2">
+        <v>18</v>
+      </c>
+      <c r="C32" s="3">
+        <v>52</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>475</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>22</v>
+      </c>
+      <c r="M32" s="3">
+        <v>62</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
         <v>4</v>
       </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7">
-        <v>0</v>
-      </c>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>4</v>
-      </c>
-      <c r="M32" s="7">
-        <v>4</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
       <c r="Q32" s="2">
         <v>0</v>
       </c>
@@ -4451,37 +4491,37 @@
       <c r="S32" s="2">
         <v>0</v>
       </c>
-      <c r="T32" s="7">
-        <v>10</v>
-      </c>
-      <c r="U32" s="7">
-        <v>10</v>
-      </c>
-      <c r="V32" s="7">
-        <v>0</v>
-      </c>
-      <c r="W32" s="7">
-        <v>0</v>
-      </c>
-      <c r="X32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="7">
+      <c r="T32" s="2">
+        <v>96</v>
+      </c>
+      <c r="U32" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="V32" s="3">
+        <v>5</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2">
         <v>0</v>
       </c>
       <c r="AE32" s="10">
@@ -4518,93 +4558,93 @@
     </row>
     <row r="33" spans="1:57" ht="12" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="8">
-        <v>16</v>
-      </c>
-      <c r="C33" s="8">
-        <v>62</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>86</v>
-      </c>
-      <c r="F33" s="9">
-        <v>195</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>4</v>
+      </c>
+      <c r="M33" s="7">
+        <v>4</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
         <v>10</v>
       </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="8">
-        <v>23</v>
-      </c>
-      <c r="M33" s="8">
-        <v>62</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
-        <v>0</v>
-      </c>
-      <c r="P33" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-      <c r="S33" s="2">
-        <v>0</v>
-      </c>
-      <c r="T33" s="9">
-        <v>86</v>
-      </c>
-      <c r="U33" s="8">
-        <v>48</v>
-      </c>
-      <c r="V33" s="8">
-        <v>0</v>
-      </c>
-      <c r="W33" s="8">
-        <v>0</v>
-      </c>
-      <c r="X33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="8">
+      <c r="U33" s="7">
+        <v>10</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
+      <c r="X33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="7">
         <v>0</v>
       </c>
       <c r="AE33" s="10">
@@ -4641,7 +4681,7 @@
     </row>
     <row r="34" spans="1:57" ht="12" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="8">
         <v>16</v>
@@ -4655,8 +4695,8 @@
       <c r="E34" s="8">
         <v>86</v>
       </c>
-      <c r="F34" s="8">
-        <v>202</v>
+      <c r="F34" s="9">
+        <v>195</v>
       </c>
       <c r="G34" s="8">
         <v>0</v>
@@ -4697,7 +4737,7 @@
       <c r="S34" s="2">
         <v>0</v>
       </c>
-      <c r="T34" s="8">
+      <c r="T34" s="9">
         <v>86</v>
       </c>
       <c r="U34" s="8">
@@ -4763,8 +4803,102 @@
       <c r="BE34" s="10"/>
     </row>
     <row r="35" spans="1:57" ht="12" customHeight="1">
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
+      <c r="A35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="8">
+        <v>16</v>
+      </c>
+      <c r="C35" s="8">
+        <v>62</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>86</v>
+      </c>
+      <c r="F35" s="8">
+        <v>202</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
+        <v>10</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>23</v>
+      </c>
+      <c r="M35" s="8">
+        <v>62</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>86</v>
+      </c>
+      <c r="U35" s="8">
+        <v>48</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0</v>
+      </c>
+      <c r="W35" s="8">
+        <v>0</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="10">
+        <v>0</v>
+      </c>
       <c r="AG35" s="10"/>
       <c r="AH35" s="10"/>
       <c r="AI35" s="10"/>
@@ -4792,38 +4926,102 @@
       <c r="BE35" s="10"/>
     </row>
     <row r="36" spans="1:57" ht="12" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
+      <c r="A36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
       <c r="AG36" s="10"/>
       <c r="AH36" s="10"/>
       <c r="AI36" s="10"/>
@@ -4851,38 +5049,102 @@
       <c r="BE36" s="10"/>
     </row>
     <row r="37" spans="1:57" ht="12" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
+      <c r="A37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
       <c r="AG37" s="10"/>
       <c r="AH37" s="10"/>
       <c r="AI37" s="10"/>
@@ -4910,38 +5172,102 @@
       <c r="BE37" s="10"/>
     </row>
     <row r="38" spans="1:57" ht="12" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
+      <c r="A38" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
       <c r="AG38" s="10"/>
       <c r="AH38" s="10"/>
       <c r="AI38" s="10"/>
@@ -4969,38 +5295,102 @@
       <c r="BE38" s="10"/>
     </row>
     <row r="39" spans="1:57" ht="12" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
+      <c r="A39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
       <c r="AG39" s="10"/>
       <c r="AH39" s="10"/>
       <c r="AI39" s="10"/>
@@ -5028,38 +5418,102 @@
       <c r="BE39" s="10"/>
     </row>
     <row r="40" spans="1:57" ht="12" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
+      <c r="A40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
       <c r="AG40" s="10"/>
       <c r="AH40" s="10"/>
       <c r="AI40" s="10"/>
@@ -5087,38 +5541,102 @@
       <c r="BE40" s="10"/>
     </row>
     <row r="41" spans="1:57" ht="12" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
+      <c r="A41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
       <c r="AG41" s="10"/>
       <c r="AH41" s="10"/>
       <c r="AI41" s="10"/>
@@ -5146,38 +5664,102 @@
       <c r="BE41" s="10"/>
     </row>
     <row r="42" spans="1:57" ht="12" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
+      <c r="A42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
       <c r="AG42" s="10"/>
       <c r="AH42" s="10"/>
       <c r="AI42" s="10"/>
@@ -5205,38 +5787,102 @@
       <c r="BE42" s="10"/>
     </row>
     <row r="43" spans="1:57" ht="12" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="10"/>
+      <c r="A43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
       <c r="AG43" s="10"/>
       <c r="AH43" s="10"/>
       <c r="AI43" s="10"/>
@@ -5264,38 +5910,102 @@
       <c r="BE43" s="10"/>
     </row>
     <row r="44" spans="1:57" ht="12" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="10"/>
+      <c r="A44" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
       <c r="AI44" s="10"/>
@@ -5320,40 +6030,105 @@
       <c r="BB44" s="10"/>
       <c r="BC44" s="10"/>
       <c r="BD44" s="10"/>
+      <c r="BE44" s="10"/>
     </row>
     <row r="45" spans="1:57" ht="12" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10"/>
+      <c r="A45" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
       <c r="AG45" s="10"/>
       <c r="AH45" s="10"/>
       <c r="AI45" s="10"/>
@@ -5380,38 +6155,102 @@
       <c r="BD45" s="10"/>
     </row>
     <row r="46" spans="1:57" ht="12" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
+      <c r="A46" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
       <c r="AG46" s="10"/>
       <c r="AH46" s="10"/>
       <c r="AI46" s="10"/>
@@ -8106,6 +8945,42 @@
       <c r="BD92" s="10"/>
     </row>
     <row r="93" spans="1:56" ht="12" customHeight="1">
+      <c r="A93" s="10"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="10"/>
+      <c r="AB93" s="10"/>
+      <c r="AC93" s="10"/>
+      <c r="AD93" s="10"/>
+      <c r="AE93" s="10"/>
+      <c r="AF93" s="10"/>
+      <c r="AG93" s="10"/>
+      <c r="AH93" s="10"/>
+      <c r="AI93" s="10"/>
+      <c r="AJ93" s="10"/>
       <c r="AK93" s="10"/>
       <c r="AL93" s="10"/>
       <c r="AM93" s="10"/>
@@ -8699,7 +9574,30 @@
       <c r="BC119" s="10"/>
       <c r="BD119" s="10"/>
     </row>
+    <row r="120" spans="37:56" ht="12" customHeight="1">
+      <c r="AK120" s="10"/>
+      <c r="AL120" s="10"/>
+      <c r="AM120" s="10"/>
+      <c r="AN120" s="10"/>
+      <c r="AO120" s="10"/>
+      <c r="AP120" s="10"/>
+      <c r="AQ120" s="10"/>
+      <c r="AR120" s="10"/>
+      <c r="AS120" s="10"/>
+      <c r="AT120" s="10"/>
+      <c r="AU120" s="10"/>
+      <c r="AV120" s="10"/>
+      <c r="AW120" s="10"/>
+      <c r="AX120" s="10"/>
+      <c r="AY120" s="10"/>
+      <c r="AZ120" s="10"/>
+      <c r="BA120" s="10"/>
+      <c r="BB120" s="10"/>
+      <c r="BC120" s="10"/>
+      <c r="BD120" s="10"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
